--- a/src/test/resources/test14_2.xlsx
+++ b/src/test/resources/test14_2.xlsx
@@ -75,7 +75,7 @@
     <t>0ba7c767-50d5-4506-9f62-79e52aa21426</t>
   </si>
   <si>
-    <t>2022-06-28 10:23:28.507</t>
+    <t>2022-06-29 10:23:28.507</t>
   </si>
   <si>
     <t>true</t>
